--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H2">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N2">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q2">
-        <v>1781.233179157213</v>
+        <v>97.26878793009513</v>
       </c>
       <c r="R2">
-        <v>16031.09861241492</v>
+        <v>875.4190913708561</v>
       </c>
       <c r="S2">
-        <v>0.2165787855129171</v>
+        <v>0.01619744458386845</v>
       </c>
       <c r="T2">
-        <v>0.2165787855129171</v>
+        <v>0.01619744458386845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q3">
-        <v>7.118406745140889</v>
+        <v>0.3638504703441111</v>
       </c>
       <c r="R3">
-        <v>64.06566070626801</v>
+        <v>3.274654233097</v>
       </c>
       <c r="S3">
-        <v>0.0008655216541491895</v>
+        <v>6.058930059299905E-05</v>
       </c>
       <c r="T3">
-        <v>0.0008655216541491895</v>
+        <v>6.058930059299904E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N4">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q4">
-        <v>9.14176244980311</v>
+        <v>1.054698048745</v>
       </c>
       <c r="R4">
-        <v>82.27586204822801</v>
+        <v>9.492282438705001</v>
       </c>
       <c r="S4">
-        <v>0.001111539933116864</v>
+        <v>0.0001756309866792911</v>
       </c>
       <c r="T4">
-        <v>0.001111539933116864</v>
+        <v>0.0001756309866792911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N5">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q5">
-        <v>3467.628424121441</v>
+        <v>3704.632577276715</v>
       </c>
       <c r="R5">
-        <v>31208.65581709296</v>
+        <v>33341.69319549044</v>
       </c>
       <c r="S5">
-        <v>0.4216262988440589</v>
+        <v>0.6169047867354737</v>
       </c>
       <c r="T5">
-        <v>0.4216262988440588</v>
+        <v>0.6169047867354737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q6">
         <v>13.85780921484267</v>
@@ -818,10 +818,10 @@
         <v>124.720282933584</v>
       </c>
       <c r="S6">
-        <v>0.001684960467130081</v>
+        <v>0.002307637440414604</v>
       </c>
       <c r="T6">
-        <v>0.00168496046713008</v>
+        <v>0.002307637440414604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N7">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q7">
-        <v>17.79679139622933</v>
+        <v>40.16981021064</v>
       </c>
       <c r="R7">
-        <v>160.171122566064</v>
+        <v>361.52829189576</v>
       </c>
       <c r="S7">
-        <v>0.002163898310296346</v>
+        <v>0.006689178396043762</v>
       </c>
       <c r="T7">
-        <v>0.002163898310296346</v>
+        <v>0.006689178396043762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N8">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q8">
-        <v>2901.1522389075</v>
+        <v>2116.972403535392</v>
       </c>
       <c r="R8">
-        <v>26110.3701501675</v>
+        <v>19052.75163181853</v>
       </c>
       <c r="S8">
-        <v>0.3527488909610132</v>
+        <v>0.3525235990036849</v>
       </c>
       <c r="T8">
-        <v>0.3527488909610131</v>
+        <v>0.3525235990036849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q9">
-        <v>11.59397989425</v>
+        <v>7.918895887604</v>
       </c>
       <c r="R9">
-        <v>104.34581904825</v>
+        <v>71.27006298843601</v>
       </c>
       <c r="S9">
-        <v>0.001409703184366868</v>
+        <v>0.001318674572125555</v>
       </c>
       <c r="T9">
-        <v>0.001409703184366868</v>
+        <v>0.001318674572125555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N10">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q10">
-        <v>14.88948494175</v>
+        <v>22.95460559106</v>
       </c>
       <c r="R10">
-        <v>134.00536447575</v>
+        <v>206.59145031954</v>
       </c>
       <c r="S10">
-        <v>0.001810401132951534</v>
+        <v>0.003822458981116942</v>
       </c>
       <c r="T10">
-        <v>0.001810401132951534</v>
+        <v>0.003822458981116942</v>
       </c>
     </row>
   </sheetData>
